--- a/config/forms/app/mute.xlsx
+++ b/config/forms/app/mute.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="194">
   <si>
     <t>type</t>
   </si>
@@ -303,39 +303,30 @@
     <t>mute_request</t>
   </si>
   <si>
-    <t>By filling out this form, you will “mute” this client from the HealthJam Digital Case Management System. This means they will be archived in the system and be inactive. You will not be able to edit their record unless you reactivate their status by completing the “Un-archive a client” form</t>
-  </si>
-  <si>
     <t>field-list summary</t>
   </si>
   <si>
     <t>note</t>
   </si>
   <si>
+    <t>label_note</t>
+  </si>
+  <si>
+    <t>**By filling out this form, you will “mute” this client from the HealthJam Digital Case Management System. This means they will be archived in the system and be inactive. You will not be able to edit their record unless you reactivate their status by completing the “Un-archive a client” form**</t>
+  </si>
+  <si>
     <t>first_name</t>
   </si>
   <si>
     <t xml:space="preserve"> &lt;i style=”background-color: yellow;”&gt;**${fast_name_ctx}**&lt;/i&gt;</t>
   </si>
   <si>
-    <t>nick</t>
-  </si>
-  <si>
-    <t>Nickname: **${aka_ctx}**</t>
-  </si>
-  <si>
     <t>age_n</t>
   </si>
   <si>
     <t xml:space="preserve">Age: **${yr_date_of_birth_ctx} yr**  </t>
   </si>
   <si>
-    <t>gender_n</t>
-  </si>
-  <si>
-    <t>Gender Identity: **${gender_ctx}**</t>
-  </si>
-  <si>
     <t>dob</t>
   </si>
   <si>
@@ -355,6 +346,15 @@
   </si>
   <si>
     <t>Client Disposition:</t>
+  </si>
+  <si>
+    <t>reason_for_opting</t>
+  </si>
+  <si>
+    <t>Reason for opting out:</t>
+  </si>
+  <si>
+    <t>${reason} = 'opt'</t>
   </si>
   <si>
     <t>date</t>
@@ -495,6 +495,15 @@
     <t>selected(../../mute_request/reason, 'death')</t>
   </si>
   <si>
+    <t>n_opt</t>
+  </si>
+  <si>
+    <t>Opt Out of HealthJam</t>
+  </si>
+  <si>
+    <t>selected(../../mute_request/reason, 'opt')</t>
+  </si>
+  <si>
     <t>Special instruction&lt;I class="fa fa-user"&gt;&lt;/i&gt;</t>
   </si>
   <si>
@@ -550,6 +559,9 @@
   </si>
   <si>
     <t>death</t>
+  </si>
+  <si>
+    <t>opt</t>
   </si>
   <si>
     <t>form_title</t>
@@ -754,14 +766,14 @@
     <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
@@ -1168,7 +1180,7 @@
     <col customWidth="1" min="2" max="2" width="28.25"/>
     <col customWidth="1" min="3" max="3" width="43.25"/>
     <col customWidth="1" min="4" max="4" width="14.38"/>
-    <col customWidth="1" min="5" max="5" width="49.0"/>
+    <col customWidth="1" min="5" max="5" width="39.5"/>
     <col customWidth="1" min="6" max="6" width="17.38"/>
     <col customWidth="1" min="7" max="7" width="22.0"/>
     <col customWidth="1" min="8" max="9" width="32.75"/>
@@ -3123,12 +3135,12 @@
         <v>95</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
@@ -3155,17 +3167,17 @@
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B54" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="C54" s="18" t="s">
         <v>99</v>
-      </c>
-      <c r="C54" s="19" t="s">
-        <v>100</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
+      <c r="F54" s="18"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
@@ -3191,13 +3203,13 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B55" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C55" s="19" t="s">
         <v>101</v>
-      </c>
-      <c r="C55" s="19" t="s">
-        <v>102</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -3227,13 +3239,13 @@
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B56" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C56" s="19" t="s">
         <v>103</v>
-      </c>
-      <c r="C56" s="19" t="s">
-        <v>104</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -3263,13 +3275,13 @@
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B57" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C57" s="19" t="s">
         <v>105</v>
-      </c>
-      <c r="C57" s="19" t="s">
-        <v>106</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -3299,17 +3311,19 @@
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>107</v>
+        <v>97</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>106</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
+      <c r="F58" s="18" t="s">
+        <v>107</v>
+      </c>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
@@ -3334,28 +3348,28 @@
       <c r="AB58" s="4"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="B59" s="20" t="s">
+      <c r="A59" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C59" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="18" t="s">
+      <c r="C59" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
+      <c r="D59" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
       <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
-      <c r="M59" s="3"/>
-      <c r="N59" s="5"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="4"/>
       <c r="O59" s="4"/>
       <c r="P59" s="4"/>
       <c r="Q59" s="4"/>
@@ -3372,42 +3386,42 @@
       <c r="AB59" s="4"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B60" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="C60" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="C60" s="18" t="s">
+      <c r="D60" s="14"/>
+      <c r="E60" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="D60" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="4"/>
-      <c r="L60" s="4"/>
-      <c r="M60" s="4"/>
-      <c r="N60" s="4"/>
-      <c r="O60" s="4"/>
-      <c r="P60" s="4"/>
-      <c r="Q60" s="4"/>
-      <c r="R60" s="4"/>
-      <c r="S60" s="4"/>
-      <c r="T60" s="4"/>
-      <c r="U60" s="4"/>
-      <c r="V60" s="4"/>
-      <c r="W60" s="4"/>
-      <c r="X60" s="4"/>
-      <c r="Y60" s="4"/>
-      <c r="Z60" s="4"/>
-      <c r="AA60" s="4"/>
-      <c r="AB60" s="4"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="14"/>
+      <c r="J60" s="14"/>
+      <c r="K60" s="14"/>
+      <c r="L60" s="14"/>
+      <c r="M60" s="14"/>
+      <c r="N60" s="14"/>
+      <c r="O60" s="14"/>
+      <c r="P60" s="14"/>
+      <c r="Q60" s="14"/>
+      <c r="R60" s="14"/>
+      <c r="S60" s="14"/>
+      <c r="T60" s="14"/>
+      <c r="U60" s="14"/>
+      <c r="V60" s="14"/>
+      <c r="W60" s="14"/>
+      <c r="X60" s="14"/>
+      <c r="Y60" s="14"/>
+      <c r="Z60" s="14"/>
+      <c r="AA60" s="14"/>
+      <c r="AB60" s="14"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="18" t="s">
@@ -3526,7 +3540,7 @@
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
@@ -3553,7 +3567,7 @@
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>122</v>
@@ -3589,7 +3603,7 @@
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>124</v>
@@ -3600,7 +3614,7 @@
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="F66" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
@@ -3703,7 +3717,7 @@
     </row>
     <row r="69" ht="26.25" customHeight="1">
       <c r="A69" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B69" s="14" t="s">
         <v>130</v>
@@ -3739,7 +3753,7 @@
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B70" s="14" t="s">
         <v>132</v>
@@ -3775,16 +3789,16 @@
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B71" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="C71" s="21" t="s">
+      <c r="C71" s="22" t="s">
         <v>135</v>
       </c>
       <c r="D71" s="4"/>
-      <c r="E71" s="22" t="s">
+      <c r="E71" s="23" t="s">
         <v>136</v>
       </c>
       <c r="F71" s="4" t="s">
@@ -3815,16 +3829,16 @@
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="B72" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="B72" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="C72" s="21" t="s">
+      <c r="C72" s="22" t="s">
         <v>139</v>
       </c>
       <c r="D72" s="14"/>
-      <c r="E72" s="23" t="s">
+      <c r="E72" s="21" t="s">
         <v>140</v>
       </c>
       <c r="F72" s="14" t="s">
@@ -3855,16 +3869,16 @@
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="B73" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="B73" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="C73" s="21" t="s">
+      <c r="C73" s="22" t="s">
         <v>142</v>
       </c>
       <c r="D73" s="14"/>
-      <c r="E73" s="23" t="s">
+      <c r="E73" s="21" t="s">
         <v>143</v>
       </c>
       <c r="F73" s="14" t="s">
@@ -3894,17 +3908,17 @@
       <c r="AB73" s="14"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="B74" s="23" t="s">
+      <c r="A74" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B74" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="C74" s="21" t="s">
+      <c r="C74" s="22" t="s">
         <v>145</v>
       </c>
       <c r="D74" s="14"/>
-      <c r="E74" s="23" t="s">
+      <c r="E74" s="21" t="s">
         <v>146</v>
       </c>
       <c r="F74" s="14"/>
@@ -3932,17 +3946,17 @@
       <c r="AB74" s="14"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="B75" s="23" t="s">
+      <c r="A75" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B75" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="C75" s="21" t="s">
+      <c r="C75" s="22" t="s">
         <v>148</v>
       </c>
       <c r="D75" s="14"/>
-      <c r="E75" s="23" t="s">
+      <c r="E75" s="21" t="s">
         <v>149</v>
       </c>
       <c r="F75" s="14"/>
@@ -3970,17 +3984,17 @@
       <c r="AB75" s="14"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="B76" s="23" t="s">
+      <c r="A76" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B76" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="C76" s="21" t="s">
+      <c r="C76" s="22" t="s">
         <v>151</v>
       </c>
       <c r="D76" s="14"/>
-      <c r="E76" s="23" t="s">
+      <c r="E76" s="21" t="s">
         <v>152</v>
       </c>
       <c r="F76" s="14"/>
@@ -4008,17 +4022,17 @@
       <c r="AB76" s="14"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="B77" s="23" t="s">
+      <c r="A77" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B77" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="C77" s="21" t="s">
+      <c r="C77" s="22" t="s">
         <v>154</v>
       </c>
       <c r="D77" s="14"/>
-      <c r="E77" s="23" t="s">
+      <c r="E77" s="21" t="s">
         <v>155</v>
       </c>
       <c r="F77" s="14"/>
@@ -4047,16 +4061,16 @@
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="B78" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="B78" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="C78" s="21" t="s">
+      <c r="C78" s="22" t="s">
         <v>157</v>
       </c>
       <c r="D78" s="14"/>
-      <c r="E78" s="23" t="s">
+      <c r="E78" s="21" t="s">
         <v>158</v>
       </c>
       <c r="F78" s="14" t="s">
@@ -4086,20 +4100,20 @@
       <c r="AB78" s="14"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="B79" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="C79" s="21" t="s">
+      <c r="A79" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B79" s="21" t="s">
         <v>159</v>
       </c>
+      <c r="C79" s="22" t="s">
+        <v>160</v>
+      </c>
       <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14" t="s">
-        <v>160</v>
-      </c>
+      <c r="E79" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="F79" s="14"/>
       <c r="G79" s="14"/>
       <c r="H79" s="14"/>
       <c r="I79" s="14"/>
@@ -4123,19 +4137,21 @@
       <c r="AA79" s="14"/>
       <c r="AB79" s="14"/>
     </row>
-    <row r="80" ht="36.0" customHeight="1">
+    <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B80" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="C80" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C80" s="22" t="s">
         <v>162</v>
       </c>
       <c r="D80" s="14"/>
       <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
+      <c r="F80" s="14" t="s">
+        <v>163</v>
+      </c>
       <c r="G80" s="14"/>
       <c r="H80" s="14"/>
       <c r="I80" s="14"/>
@@ -4159,21 +4175,19 @@
       <c r="AA80" s="14"/>
       <c r="AB80" s="14"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" ht="36.0" customHeight="1">
       <c r="A81" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B81" s="14" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D81" s="14"/>
       <c r="E81" s="14"/>
-      <c r="F81" s="14" t="s">
-        <v>165</v>
-      </c>
+      <c r="F81" s="14"/>
       <c r="G81" s="14"/>
       <c r="H81" s="14"/>
       <c r="I81" s="14"/>
@@ -4199,7 +4213,7 @@
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B82" s="14" t="s">
         <v>166</v>
@@ -4209,7 +4223,9 @@
       </c>
       <c r="D82" s="14"/>
       <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
+      <c r="F82" s="14" t="s">
+        <v>168</v>
+      </c>
       <c r="G82" s="14"/>
       <c r="H82" s="14"/>
       <c r="I82" s="14"/>
@@ -4234,126 +4250,132 @@
       <c r="AB82" s="14"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="3" t="s">
+      <c r="A83" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B83" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="C83" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c r="G83" s="14"/>
+      <c r="H83" s="14"/>
+      <c r="I83" s="14"/>
+      <c r="J83" s="14"/>
+      <c r="K83" s="14"/>
+      <c r="L83" s="14"/>
+      <c r="M83" s="14"/>
+      <c r="N83" s="14"/>
+      <c r="O83" s="14"/>
+      <c r="P83" s="14"/>
+      <c r="Q83" s="14"/>
+      <c r="R83" s="14"/>
+      <c r="S83" s="14"/>
+      <c r="T83" s="14"/>
+      <c r="U83" s="14"/>
+      <c r="V83" s="14"/>
+      <c r="W83" s="14"/>
+      <c r="X83" s="14"/>
+      <c r="Y83" s="14"/>
+      <c r="Z83" s="14"/>
+      <c r="AA83" s="14"/>
+      <c r="AB83" s="14"/>
+    </row>
+    <row r="84" ht="15.75" customHeight="1">
+      <c r="A84" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
-      <c r="H83" s="4"/>
-      <c r="I83" s="4"/>
-      <c r="J83" s="3"/>
-      <c r="K83" s="4"/>
-      <c r="L83" s="4"/>
-      <c r="M83" s="4"/>
-      <c r="N83" s="4"/>
-      <c r="O83" s="4"/>
-      <c r="P83" s="4"/>
-      <c r="Q83" s="4"/>
-      <c r="R83" s="4"/>
-      <c r="S83" s="4"/>
-      <c r="T83" s="4"/>
-      <c r="U83" s="4"/>
-      <c r="V83" s="4"/>
-      <c r="W83" s="4"/>
-      <c r="X83" s="4"/>
-      <c r="Y83" s="4"/>
-      <c r="Z83" s="4"/>
-      <c r="AA83" s="4"/>
-      <c r="AB83" s="4"/>
-    </row>
-    <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="14"/>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c r="G84" s="14"/>
-      <c r="H84" s="14"/>
-      <c r="I84" s="14"/>
-      <c r="J84" s="14"/>
-      <c r="K84" s="14"/>
-      <c r="L84" s="14"/>
-      <c r="M84" s="14"/>
-      <c r="N84" s="14"/>
-      <c r="O84" s="14"/>
-      <c r="P84" s="14"/>
-      <c r="Q84" s="14"/>
-      <c r="R84" s="14"/>
-      <c r="S84" s="14"/>
-      <c r="T84" s="14"/>
-      <c r="U84" s="14"/>
-      <c r="V84" s="14"/>
-      <c r="W84" s="14"/>
-      <c r="X84" s="14"/>
-      <c r="Y84" s="14"/>
-      <c r="Z84" s="14"/>
-      <c r="AA84" s="14"/>
-      <c r="AB84" s="14"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="3"/>
+      <c r="K84" s="4"/>
+      <c r="L84" s="4"/>
+      <c r="M84" s="4"/>
+      <c r="N84" s="4"/>
+      <c r="O84" s="4"/>
+      <c r="P84" s="4"/>
+      <c r="Q84" s="4"/>
+      <c r="R84" s="4"/>
+      <c r="S84" s="4"/>
+      <c r="T84" s="4"/>
+      <c r="U84" s="4"/>
+      <c r="V84" s="4"/>
+      <c r="W84" s="4"/>
+      <c r="X84" s="4"/>
+      <c r="Y84" s="4"/>
+      <c r="Z84" s="4"/>
+      <c r="AA84" s="4"/>
+      <c r="AB84" s="4"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
-      <c r="H85" s="4"/>
-      <c r="I85" s="4"/>
-      <c r="J85" s="3"/>
-      <c r="K85" s="4"/>
-      <c r="L85" s="4"/>
-      <c r="M85" s="4"/>
-      <c r="N85" s="4"/>
-      <c r="O85" s="4"/>
-      <c r="P85" s="4"/>
-      <c r="Q85" s="4"/>
-      <c r="R85" s="4"/>
-      <c r="S85" s="4"/>
-      <c r="T85" s="4"/>
-      <c r="U85" s="4"/>
-      <c r="V85" s="4"/>
-      <c r="W85" s="4"/>
-      <c r="X85" s="4"/>
-      <c r="Y85" s="4"/>
-      <c r="Z85" s="4"/>
-      <c r="AA85" s="4"/>
-      <c r="AB85" s="4"/>
+      <c r="A85" s="14"/>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c r="G85" s="14"/>
+      <c r="H85" s="14"/>
+      <c r="I85" s="14"/>
+      <c r="J85" s="14"/>
+      <c r="K85" s="14"/>
+      <c r="L85" s="14"/>
+      <c r="M85" s="14"/>
+      <c r="N85" s="14"/>
+      <c r="O85" s="14"/>
+      <c r="P85" s="14"/>
+      <c r="Q85" s="14"/>
+      <c r="R85" s="14"/>
+      <c r="S85" s="14"/>
+      <c r="T85" s="14"/>
+      <c r="U85" s="14"/>
+      <c r="V85" s="14"/>
+      <c r="W85" s="14"/>
+      <c r="X85" s="14"/>
+      <c r="Y85" s="14"/>
+      <c r="Z85" s="14"/>
+      <c r="AA85" s="14"/>
+      <c r="AB85" s="14"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="14"/>
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c r="G86" s="14"/>
-      <c r="H86" s="14"/>
-      <c r="I86" s="14"/>
-      <c r="J86" s="14"/>
-      <c r="K86" s="14"/>
-      <c r="L86" s="14"/>
-      <c r="M86" s="14"/>
-      <c r="N86" s="14"/>
-      <c r="O86" s="14"/>
-      <c r="P86" s="14"/>
-      <c r="Q86" s="14"/>
-      <c r="R86" s="14"/>
-      <c r="S86" s="14"/>
-      <c r="T86" s="14"/>
-      <c r="U86" s="14"/>
-      <c r="V86" s="14"/>
-      <c r="W86" s="14"/>
-      <c r="X86" s="14"/>
-      <c r="Y86" s="14"/>
-      <c r="Z86" s="14"/>
-      <c r="AA86" s="14"/>
-      <c r="AB86" s="14"/>
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="3"/>
+      <c r="K86" s="4"/>
+      <c r="L86" s="4"/>
+      <c r="M86" s="4"/>
+      <c r="N86" s="4"/>
+      <c r="O86" s="4"/>
+      <c r="P86" s="4"/>
+      <c r="Q86" s="4"/>
+      <c r="R86" s="4"/>
+      <c r="S86" s="4"/>
+      <c r="T86" s="4"/>
+      <c r="U86" s="4"/>
+      <c r="V86" s="4"/>
+      <c r="W86" s="4"/>
+      <c r="X86" s="4"/>
+      <c r="Y86" s="4"/>
+      <c r="Z86" s="4"/>
+      <c r="AA86" s="4"/>
+      <c r="AB86" s="4"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="14"/>
@@ -4510,7 +4532,7 @@
       <c r="B92" s="14"/>
       <c r="C92" s="14"/>
       <c r="D92" s="14"/>
-      <c r="E92" s="24"/>
+      <c r="E92" s="14"/>
       <c r="F92" s="14"/>
       <c r="G92" s="14"/>
       <c r="H92" s="14"/>
@@ -4540,7 +4562,7 @@
       <c r="B93" s="14"/>
       <c r="C93" s="14"/>
       <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
+      <c r="E93" s="24"/>
       <c r="F93" s="14"/>
       <c r="G93" s="14"/>
       <c r="H93" s="14"/>
@@ -4960,7 +4982,7 @@
       <c r="B107" s="14"/>
       <c r="C107" s="14"/>
       <c r="D107" s="14"/>
-      <c r="E107" s="24"/>
+      <c r="E107" s="14"/>
       <c r="F107" s="14"/>
       <c r="G107" s="14"/>
       <c r="H107" s="14"/>
@@ -5050,7 +5072,7 @@
       <c r="B110" s="14"/>
       <c r="C110" s="14"/>
       <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
+      <c r="E110" s="24"/>
       <c r="F110" s="14"/>
       <c r="G110" s="14"/>
       <c r="H110" s="14"/>
@@ -5406,64 +5428,64 @@
       <c r="AB121" s="14"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="4"/>
-      <c r="B122" s="4"/>
-      <c r="C122" s="4"/>
-      <c r="D122" s="25"/>
-      <c r="E122" s="25"/>
-      <c r="F122" s="25"/>
-      <c r="G122" s="25"/>
-      <c r="H122" s="25"/>
-      <c r="I122" s="25"/>
-      <c r="J122" s="25"/>
-      <c r="K122" s="25"/>
-      <c r="L122" s="25"/>
-      <c r="M122" s="25"/>
-      <c r="N122" s="25"/>
-      <c r="O122" s="25"/>
-      <c r="P122" s="25"/>
-      <c r="Q122" s="25"/>
-      <c r="R122" s="25"/>
-      <c r="S122" s="25"/>
-      <c r="T122" s="25"/>
-      <c r="U122" s="25"/>
-      <c r="V122" s="25"/>
-      <c r="W122" s="25"/>
-      <c r="X122" s="25"/>
-      <c r="Y122" s="25"/>
-      <c r="Z122" s="25"/>
-      <c r="AA122" s="25"/>
-      <c r="AB122" s="25"/>
+      <c r="A122" s="14"/>
+      <c r="B122" s="14"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14"/>
+      <c r="G122" s="14"/>
+      <c r="H122" s="14"/>
+      <c r="I122" s="14"/>
+      <c r="J122" s="14"/>
+      <c r="K122" s="14"/>
+      <c r="L122" s="14"/>
+      <c r="M122" s="14"/>
+      <c r="N122" s="14"/>
+      <c r="O122" s="14"/>
+      <c r="P122" s="14"/>
+      <c r="Q122" s="14"/>
+      <c r="R122" s="14"/>
+      <c r="S122" s="14"/>
+      <c r="T122" s="14"/>
+      <c r="U122" s="14"/>
+      <c r="V122" s="14"/>
+      <c r="W122" s="14"/>
+      <c r="X122" s="14"/>
+      <c r="Y122" s="14"/>
+      <c r="Z122" s="14"/>
+      <c r="AA122" s="14"/>
+      <c r="AB122" s="14"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="14"/>
-      <c r="B123" s="14"/>
+      <c r="A123" s="4"/>
+      <c r="B123" s="4"/>
       <c r="C123" s="4"/>
-      <c r="D123" s="14"/>
-      <c r="E123" s="14"/>
-      <c r="F123" s="14"/>
-      <c r="G123" s="14"/>
-      <c r="H123" s="14"/>
-      <c r="I123" s="14"/>
-      <c r="J123" s="14"/>
-      <c r="K123" s="14"/>
-      <c r="L123" s="14"/>
-      <c r="M123" s="14"/>
-      <c r="N123" s="14"/>
-      <c r="O123" s="14"/>
-      <c r="P123" s="14"/>
-      <c r="Q123" s="14"/>
-      <c r="R123" s="14"/>
-      <c r="S123" s="14"/>
-      <c r="T123" s="14"/>
-      <c r="U123" s="14"/>
-      <c r="V123" s="14"/>
-      <c r="W123" s="14"/>
-      <c r="X123" s="14"/>
-      <c r="Y123" s="14"/>
-      <c r="Z123" s="14"/>
-      <c r="AA123" s="14"/>
-      <c r="AB123" s="14"/>
+      <c r="D123" s="25"/>
+      <c r="E123" s="25"/>
+      <c r="F123" s="25"/>
+      <c r="G123" s="25"/>
+      <c r="H123" s="25"/>
+      <c r="I123" s="25"/>
+      <c r="J123" s="25"/>
+      <c r="K123" s="25"/>
+      <c r="L123" s="25"/>
+      <c r="M123" s="25"/>
+      <c r="N123" s="25"/>
+      <c r="O123" s="25"/>
+      <c r="P123" s="25"/>
+      <c r="Q123" s="25"/>
+      <c r="R123" s="25"/>
+      <c r="S123" s="25"/>
+      <c r="T123" s="25"/>
+      <c r="U123" s="25"/>
+      <c r="V123" s="25"/>
+      <c r="W123" s="25"/>
+      <c r="X123" s="25"/>
+      <c r="Y123" s="25"/>
+      <c r="Z123" s="25"/>
+      <c r="AA123" s="25"/>
+      <c r="AB123" s="25"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="14"/>
@@ -5586,9 +5608,9 @@
       <c r="AB127" s="14"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="4"/>
+      <c r="A128" s="14"/>
       <c r="B128" s="14"/>
-      <c r="C128" s="3"/>
+      <c r="C128" s="4"/>
       <c r="D128" s="14"/>
       <c r="E128" s="14"/>
       <c r="F128" s="14"/>
@@ -5616,9 +5638,9 @@
       <c r="AB128" s="14"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="14"/>
+      <c r="A129" s="4"/>
       <c r="B129" s="14"/>
-      <c r="C129" s="14"/>
+      <c r="C129" s="3"/>
       <c r="D129" s="14"/>
       <c r="E129" s="14"/>
       <c r="F129" s="14"/>
@@ -5646,34 +5668,34 @@
       <c r="AB129" s="14"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="4"/>
-      <c r="B130" s="4"/>
-      <c r="C130" s="4"/>
-      <c r="D130" s="4"/>
-      <c r="E130" s="4"/>
-      <c r="F130" s="4"/>
-      <c r="G130" s="4"/>
-      <c r="H130" s="4"/>
-      <c r="I130" s="4"/>
-      <c r="J130" s="4"/>
-      <c r="K130" s="4"/>
-      <c r="L130" s="4"/>
-      <c r="M130" s="4"/>
-      <c r="N130" s="4"/>
-      <c r="O130" s="4"/>
-      <c r="P130" s="4"/>
-      <c r="Q130" s="4"/>
-      <c r="R130" s="4"/>
-      <c r="S130" s="4"/>
-      <c r="T130" s="4"/>
-      <c r="U130" s="4"/>
-      <c r="V130" s="4"/>
-      <c r="W130" s="4"/>
-      <c r="X130" s="4"/>
-      <c r="Y130" s="4"/>
-      <c r="Z130" s="4"/>
-      <c r="AA130" s="4"/>
-      <c r="AB130" s="4"/>
+      <c r="A130" s="14"/>
+      <c r="B130" s="14"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="14"/>
+      <c r="E130" s="14"/>
+      <c r="F130" s="14"/>
+      <c r="G130" s="14"/>
+      <c r="H130" s="14"/>
+      <c r="I130" s="14"/>
+      <c r="J130" s="14"/>
+      <c r="K130" s="14"/>
+      <c r="L130" s="14"/>
+      <c r="M130" s="14"/>
+      <c r="N130" s="14"/>
+      <c r="O130" s="14"/>
+      <c r="P130" s="14"/>
+      <c r="Q130" s="14"/>
+      <c r="R130" s="14"/>
+      <c r="S130" s="14"/>
+      <c r="T130" s="14"/>
+      <c r="U130" s="14"/>
+      <c r="V130" s="14"/>
+      <c r="W130" s="14"/>
+      <c r="X130" s="14"/>
+      <c r="Y130" s="14"/>
+      <c r="Z130" s="14"/>
+      <c r="AA130" s="14"/>
+      <c r="AB130" s="14"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="4"/>
@@ -5738,7 +5760,7 @@
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
-      <c r="C133" s="3"/>
+      <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
@@ -5768,7 +5790,7 @@
     <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
-      <c r="C134" s="4"/>
+      <c r="C134" s="3"/>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
@@ -5797,93 +5819,93 @@
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="4"/>
-      <c r="B135" s="14"/>
-      <c r="C135" s="3"/>
-      <c r="D135" s="14"/>
-      <c r="E135" s="14"/>
-      <c r="F135" s="14"/>
-      <c r="G135" s="14"/>
-      <c r="H135" s="14"/>
-      <c r="I135" s="14"/>
-      <c r="J135" s="14"/>
-      <c r="K135" s="14"/>
-      <c r="L135" s="14"/>
-      <c r="M135" s="14"/>
-      <c r="N135" s="14"/>
-      <c r="O135" s="14"/>
-      <c r="P135" s="14"/>
-      <c r="Q135" s="14"/>
-      <c r="R135" s="14"/>
-      <c r="S135" s="14"/>
-      <c r="T135" s="14"/>
-      <c r="U135" s="14"/>
-      <c r="V135" s="14"/>
-      <c r="W135" s="14"/>
-      <c r="X135" s="14"/>
-      <c r="Y135" s="14"/>
-      <c r="Z135" s="14"/>
-      <c r="AA135" s="14"/>
-      <c r="AB135" s="14"/>
+      <c r="B135" s="4"/>
+      <c r="C135" s="4"/>
+      <c r="D135" s="4"/>
+      <c r="E135" s="4"/>
+      <c r="F135" s="4"/>
+      <c r="G135" s="4"/>
+      <c r="H135" s="4"/>
+      <c r="I135" s="4"/>
+      <c r="J135" s="4"/>
+      <c r="K135" s="4"/>
+      <c r="L135" s="4"/>
+      <c r="M135" s="4"/>
+      <c r="N135" s="4"/>
+      <c r="O135" s="4"/>
+      <c r="P135" s="4"/>
+      <c r="Q135" s="4"/>
+      <c r="R135" s="4"/>
+      <c r="S135" s="4"/>
+      <c r="T135" s="4"/>
+      <c r="U135" s="4"/>
+      <c r="V135" s="4"/>
+      <c r="W135" s="4"/>
+      <c r="X135" s="4"/>
+      <c r="Y135" s="4"/>
+      <c r="Z135" s="4"/>
+      <c r="AA135" s="4"/>
+      <c r="AB135" s="4"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="4"/>
-      <c r="B136" s="4"/>
-      <c r="C136" s="4"/>
-      <c r="D136" s="4"/>
-      <c r="E136" s="4"/>
-      <c r="F136" s="4"/>
-      <c r="G136" s="4"/>
-      <c r="H136" s="4"/>
-      <c r="I136" s="4"/>
-      <c r="J136" s="4"/>
-      <c r="K136" s="4"/>
-      <c r="L136" s="4"/>
-      <c r="M136" s="4"/>
-      <c r="N136" s="4"/>
-      <c r="O136" s="4"/>
-      <c r="P136" s="4"/>
-      <c r="Q136" s="4"/>
-      <c r="R136" s="4"/>
-      <c r="S136" s="4"/>
-      <c r="T136" s="4"/>
-      <c r="U136" s="4"/>
-      <c r="V136" s="4"/>
-      <c r="W136" s="4"/>
-      <c r="X136" s="4"/>
-      <c r="Y136" s="4"/>
-      <c r="Z136" s="4"/>
-      <c r="AA136" s="4"/>
-      <c r="AB136" s="4"/>
+      <c r="B136" s="14"/>
+      <c r="C136" s="3"/>
+      <c r="D136" s="14"/>
+      <c r="E136" s="14"/>
+      <c r="F136" s="14"/>
+      <c r="G136" s="14"/>
+      <c r="H136" s="14"/>
+      <c r="I136" s="14"/>
+      <c r="J136" s="14"/>
+      <c r="K136" s="14"/>
+      <c r="L136" s="14"/>
+      <c r="M136" s="14"/>
+      <c r="N136" s="14"/>
+      <c r="O136" s="14"/>
+      <c r="P136" s="14"/>
+      <c r="Q136" s="14"/>
+      <c r="R136" s="14"/>
+      <c r="S136" s="14"/>
+      <c r="T136" s="14"/>
+      <c r="U136" s="14"/>
+      <c r="V136" s="14"/>
+      <c r="W136" s="14"/>
+      <c r="X136" s="14"/>
+      <c r="Y136" s="14"/>
+      <c r="Z136" s="14"/>
+      <c r="AA136" s="14"/>
+      <c r="AB136" s="14"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="4"/>
-      <c r="B137" s="14"/>
-      <c r="C137" s="14"/>
-      <c r="D137" s="14"/>
-      <c r="E137" s="14"/>
-      <c r="F137" s="14"/>
-      <c r="G137" s="14"/>
-      <c r="H137" s="14"/>
-      <c r="I137" s="14"/>
-      <c r="J137" s="14"/>
-      <c r="K137" s="14"/>
-      <c r="L137" s="14"/>
-      <c r="M137" s="14"/>
-      <c r="N137" s="14"/>
-      <c r="O137" s="14"/>
-      <c r="P137" s="14"/>
-      <c r="Q137" s="14"/>
-      <c r="R137" s="14"/>
-      <c r="S137" s="14"/>
-      <c r="T137" s="14"/>
-      <c r="U137" s="14"/>
-      <c r="V137" s="14"/>
-      <c r="W137" s="14"/>
-      <c r="X137" s="14"/>
-      <c r="Y137" s="14"/>
-      <c r="Z137" s="14"/>
-      <c r="AA137" s="14"/>
-      <c r="AB137" s="14"/>
+      <c r="B137" s="4"/>
+      <c r="C137" s="4"/>
+      <c r="D137" s="4"/>
+      <c r="E137" s="4"/>
+      <c r="F137" s="4"/>
+      <c r="G137" s="4"/>
+      <c r="H137" s="4"/>
+      <c r="I137" s="4"/>
+      <c r="J137" s="4"/>
+      <c r="K137" s="4"/>
+      <c r="L137" s="4"/>
+      <c r="M137" s="4"/>
+      <c r="N137" s="4"/>
+      <c r="O137" s="4"/>
+      <c r="P137" s="4"/>
+      <c r="Q137" s="4"/>
+      <c r="R137" s="4"/>
+      <c r="S137" s="4"/>
+      <c r="T137" s="4"/>
+      <c r="U137" s="4"/>
+      <c r="V137" s="4"/>
+      <c r="W137" s="4"/>
+      <c r="X137" s="4"/>
+      <c r="Y137" s="4"/>
+      <c r="Z137" s="4"/>
+      <c r="AA137" s="4"/>
+      <c r="AB137" s="4"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="4"/>
@@ -5948,7 +5970,7 @@
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="4"/>
       <c r="B140" s="14"/>
-      <c r="C140" s="3"/>
+      <c r="C140" s="14"/>
       <c r="D140" s="14"/>
       <c r="E140" s="14"/>
       <c r="F140" s="14"/>
@@ -5978,7 +6000,7 @@
     <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="4"/>
       <c r="B141" s="14"/>
-      <c r="C141" s="14"/>
+      <c r="C141" s="3"/>
       <c r="D141" s="14"/>
       <c r="E141" s="14"/>
       <c r="F141" s="14"/>
@@ -6098,7 +6120,7 @@
     <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="4"/>
       <c r="B145" s="14"/>
-      <c r="C145" s="3"/>
+      <c r="C145" s="14"/>
       <c r="D145" s="14"/>
       <c r="E145" s="14"/>
       <c r="F145" s="14"/>
@@ -6128,7 +6150,7 @@
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="4"/>
       <c r="B146" s="14"/>
-      <c r="C146" s="14"/>
+      <c r="C146" s="3"/>
       <c r="D146" s="14"/>
       <c r="E146" s="14"/>
       <c r="F146" s="14"/>
@@ -6158,7 +6180,7 @@
     <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="4"/>
       <c r="B147" s="14"/>
-      <c r="C147" s="3"/>
+      <c r="C147" s="14"/>
       <c r="D147" s="14"/>
       <c r="E147" s="14"/>
       <c r="F147" s="14"/>
@@ -6188,7 +6210,7 @@
     <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="4"/>
       <c r="B148" s="14"/>
-      <c r="C148" s="14"/>
+      <c r="C148" s="3"/>
       <c r="D148" s="14"/>
       <c r="E148" s="14"/>
       <c r="F148" s="14"/>
@@ -6218,7 +6240,7 @@
     <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="4"/>
       <c r="B149" s="14"/>
-      <c r="C149" s="4"/>
+      <c r="C149" s="14"/>
       <c r="D149" s="14"/>
       <c r="E149" s="14"/>
       <c r="F149" s="14"/>
@@ -6247,33 +6269,33 @@
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="4"/>
-      <c r="B150" s="4"/>
+      <c r="B150" s="14"/>
       <c r="C150" s="4"/>
-      <c r="D150" s="4"/>
-      <c r="E150" s="4"/>
-      <c r="F150" s="4"/>
-      <c r="G150" s="4"/>
-      <c r="H150" s="4"/>
-      <c r="I150" s="4"/>
-      <c r="J150" s="4"/>
-      <c r="K150" s="4"/>
-      <c r="L150" s="4"/>
-      <c r="M150" s="4"/>
-      <c r="N150" s="4"/>
-      <c r="O150" s="4"/>
-      <c r="P150" s="4"/>
-      <c r="Q150" s="4"/>
-      <c r="R150" s="4"/>
-      <c r="S150" s="4"/>
-      <c r="T150" s="4"/>
-      <c r="U150" s="4"/>
-      <c r="V150" s="4"/>
-      <c r="W150" s="4"/>
-      <c r="X150" s="4"/>
-      <c r="Y150" s="4"/>
-      <c r="Z150" s="4"/>
-      <c r="AA150" s="4"/>
-      <c r="AB150" s="4"/>
+      <c r="D150" s="14"/>
+      <c r="E150" s="14"/>
+      <c r="F150" s="14"/>
+      <c r="G150" s="14"/>
+      <c r="H150" s="14"/>
+      <c r="I150" s="14"/>
+      <c r="J150" s="14"/>
+      <c r="K150" s="14"/>
+      <c r="L150" s="14"/>
+      <c r="M150" s="14"/>
+      <c r="N150" s="14"/>
+      <c r="O150" s="14"/>
+      <c r="P150" s="14"/>
+      <c r="Q150" s="14"/>
+      <c r="R150" s="14"/>
+      <c r="S150" s="14"/>
+      <c r="T150" s="14"/>
+      <c r="U150" s="14"/>
+      <c r="V150" s="14"/>
+      <c r="W150" s="14"/>
+      <c r="X150" s="14"/>
+      <c r="Y150" s="14"/>
+      <c r="Z150" s="14"/>
+      <c r="AA150" s="14"/>
+      <c r="AB150" s="14"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="4"/>
@@ -6368,7 +6390,7 @@
     <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
-      <c r="C154" s="3"/>
+      <c r="C154" s="4"/>
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
@@ -6458,7 +6480,7 @@
     <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
-      <c r="C157" s="4"/>
+      <c r="C157" s="3"/>
       <c r="D157" s="4"/>
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
@@ -6758,7 +6780,7 @@
     <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
-      <c r="C167" s="3"/>
+      <c r="C167" s="4"/>
       <c r="D167" s="4"/>
       <c r="E167" s="4"/>
       <c r="F167" s="4"/>
@@ -6818,7 +6840,7 @@
     <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
-      <c r="C169" s="4"/>
+      <c r="C169" s="3"/>
       <c r="D169" s="4"/>
       <c r="E169" s="4"/>
       <c r="F169" s="4"/>
@@ -6908,7 +6930,7 @@
     <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
-      <c r="C172" s="24"/>
+      <c r="C172" s="4"/>
       <c r="D172" s="4"/>
       <c r="E172" s="4"/>
       <c r="F172" s="4"/>
@@ -6998,7 +7020,7 @@
     <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
-      <c r="C175" s="4"/>
+      <c r="C175" s="24"/>
       <c r="D175" s="4"/>
       <c r="E175" s="4"/>
       <c r="F175" s="4"/>
@@ -7028,7 +7050,7 @@
     <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
-      <c r="C176" s="24"/>
+      <c r="C176" s="4"/>
       <c r="D176" s="4"/>
       <c r="E176" s="4"/>
       <c r="F176" s="4"/>
@@ -7060,7 +7082,7 @@
       <c r="B177" s="4"/>
       <c r="C177" s="24"/>
       <c r="D177" s="4"/>
-      <c r="E177" s="24"/>
+      <c r="E177" s="4"/>
       <c r="F177" s="4"/>
       <c r="G177" s="4"/>
       <c r="H177" s="4"/>
@@ -7088,9 +7110,9 @@
     <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
-      <c r="C178" s="4"/>
+      <c r="C178" s="24"/>
       <c r="D178" s="4"/>
-      <c r="E178" s="4"/>
+      <c r="E178" s="24"/>
       <c r="F178" s="4"/>
       <c r="G178" s="4"/>
       <c r="H178" s="4"/>
@@ -7328,7 +7350,7 @@
     <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
-      <c r="C186" s="3"/>
+      <c r="C186" s="4"/>
       <c r="D186" s="4"/>
       <c r="E186" s="4"/>
       <c r="F186" s="4"/>
@@ -7358,7 +7380,7 @@
     <row r="187" ht="15.75" customHeight="1">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
-      <c r="C187" s="4"/>
+      <c r="C187" s="3"/>
       <c r="D187" s="4"/>
       <c r="E187" s="4"/>
       <c r="F187" s="4"/>
@@ -7388,7 +7410,7 @@
     <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
-      <c r="C188" s="3"/>
+      <c r="C188" s="4"/>
       <c r="D188" s="4"/>
       <c r="E188" s="4"/>
       <c r="F188" s="4"/>
@@ -7418,7 +7440,7 @@
     <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
-      <c r="C189" s="24"/>
+      <c r="C189" s="3"/>
       <c r="D189" s="4"/>
       <c r="E189" s="4"/>
       <c r="F189" s="4"/>
@@ -7448,7 +7470,7 @@
     <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
-      <c r="C190" s="3"/>
+      <c r="C190" s="24"/>
       <c r="D190" s="4"/>
       <c r="E190" s="4"/>
       <c r="F190" s="4"/>
@@ -7478,7 +7500,7 @@
     <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
-      <c r="C191" s="24"/>
+      <c r="C191" s="3"/>
       <c r="D191" s="4"/>
       <c r="E191" s="4"/>
       <c r="F191" s="4"/>
@@ -7508,7 +7530,7 @@
     <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
-      <c r="C192" s="3"/>
+      <c r="C192" s="24"/>
       <c r="D192" s="4"/>
       <c r="E192" s="4"/>
       <c r="F192" s="4"/>
@@ -7538,7 +7560,7 @@
     <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
-      <c r="C193" s="4"/>
+      <c r="C193" s="3"/>
       <c r="D193" s="4"/>
       <c r="E193" s="4"/>
       <c r="F193" s="4"/>
@@ -7568,7 +7590,7 @@
     <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
-      <c r="C194" s="3"/>
+      <c r="C194" s="4"/>
       <c r="D194" s="4"/>
       <c r="E194" s="4"/>
       <c r="F194" s="4"/>
@@ -7598,7 +7620,7 @@
     <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
-      <c r="C195" s="4"/>
+      <c r="C195" s="3"/>
       <c r="D195" s="4"/>
       <c r="E195" s="4"/>
       <c r="F195" s="4"/>
@@ -7628,7 +7650,7 @@
     <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
-      <c r="C196" s="3"/>
+      <c r="C196" s="4"/>
       <c r="D196" s="4"/>
       <c r="E196" s="4"/>
       <c r="F196" s="4"/>
@@ -7656,69 +7678,69 @@
       <c r="AB196" s="4"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="26"/>
-      <c r="B197" s="26"/>
-      <c r="C197" s="26"/>
-      <c r="D197" s="26"/>
-      <c r="E197" s="26"/>
-      <c r="F197" s="26"/>
-      <c r="G197" s="26"/>
-      <c r="H197" s="26"/>
-      <c r="I197" s="26"/>
-      <c r="J197" s="26"/>
-      <c r="K197" s="26"/>
-      <c r="L197" s="26"/>
-      <c r="M197" s="26"/>
-      <c r="N197" s="26"/>
-      <c r="O197" s="26"/>
-      <c r="P197" s="26"/>
-      <c r="Q197" s="26"/>
-      <c r="R197" s="26"/>
-      <c r="S197" s="26"/>
-      <c r="T197" s="26"/>
-      <c r="U197" s="26"/>
-      <c r="V197" s="26"/>
-      <c r="W197" s="26"/>
-      <c r="X197" s="26"/>
-      <c r="Y197" s="26"/>
-      <c r="Z197" s="26"/>
-      <c r="AA197" s="26"/>
-      <c r="AB197" s="26"/>
+      <c r="A197" s="4"/>
+      <c r="B197" s="4"/>
+      <c r="C197" s="3"/>
+      <c r="D197" s="4"/>
+      <c r="E197" s="4"/>
+      <c r="F197" s="4"/>
+      <c r="G197" s="4"/>
+      <c r="H197" s="4"/>
+      <c r="I197" s="4"/>
+      <c r="J197" s="4"/>
+      <c r="K197" s="4"/>
+      <c r="L197" s="4"/>
+      <c r="M197" s="4"/>
+      <c r="N197" s="4"/>
+      <c r="O197" s="4"/>
+      <c r="P197" s="4"/>
+      <c r="Q197" s="4"/>
+      <c r="R197" s="4"/>
+      <c r="S197" s="4"/>
+      <c r="T197" s="4"/>
+      <c r="U197" s="4"/>
+      <c r="V197" s="4"/>
+      <c r="W197" s="4"/>
+      <c r="X197" s="4"/>
+      <c r="Y197" s="4"/>
+      <c r="Z197" s="4"/>
+      <c r="AA197" s="4"/>
+      <c r="AB197" s="4"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="4"/>
-      <c r="B198" s="4"/>
-      <c r="C198" s="4"/>
-      <c r="D198" s="4"/>
-      <c r="E198" s="4"/>
-      <c r="F198" s="4"/>
-      <c r="G198" s="4"/>
-      <c r="H198" s="4"/>
-      <c r="I198" s="4"/>
-      <c r="J198" s="4"/>
-      <c r="K198" s="4"/>
-      <c r="L198" s="4"/>
-      <c r="M198" s="4"/>
-      <c r="N198" s="4"/>
-      <c r="O198" s="4"/>
-      <c r="P198" s="4"/>
-      <c r="Q198" s="4"/>
-      <c r="R198" s="4"/>
-      <c r="S198" s="4"/>
-      <c r="T198" s="4"/>
-      <c r="U198" s="4"/>
-      <c r="V198" s="4"/>
-      <c r="W198" s="4"/>
-      <c r="X198" s="4"/>
-      <c r="Y198" s="4"/>
-      <c r="Z198" s="4"/>
-      <c r="AA198" s="4"/>
-      <c r="AB198" s="4"/>
+      <c r="A198" s="26"/>
+      <c r="B198" s="26"/>
+      <c r="C198" s="26"/>
+      <c r="D198" s="26"/>
+      <c r="E198" s="26"/>
+      <c r="F198" s="26"/>
+      <c r="G198" s="26"/>
+      <c r="H198" s="26"/>
+      <c r="I198" s="26"/>
+      <c r="J198" s="26"/>
+      <c r="K198" s="26"/>
+      <c r="L198" s="26"/>
+      <c r="M198" s="26"/>
+      <c r="N198" s="26"/>
+      <c r="O198" s="26"/>
+      <c r="P198" s="26"/>
+      <c r="Q198" s="26"/>
+      <c r="R198" s="26"/>
+      <c r="S198" s="26"/>
+      <c r="T198" s="26"/>
+      <c r="U198" s="26"/>
+      <c r="V198" s="26"/>
+      <c r="W198" s="26"/>
+      <c r="X198" s="26"/>
+      <c r="Y198" s="26"/>
+      <c r="Z198" s="26"/>
+      <c r="AA198" s="26"/>
+      <c r="AB198" s="26"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
-      <c r="C199" s="3"/>
+      <c r="C199" s="4"/>
       <c r="D199" s="4"/>
       <c r="E199" s="4"/>
       <c r="F199" s="4"/>
@@ -7748,7 +7770,7 @@
     <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
-      <c r="C200" s="4"/>
+      <c r="C200" s="3"/>
       <c r="D200" s="4"/>
       <c r="E200" s="4"/>
       <c r="F200" s="4"/>
@@ -7778,7 +7800,7 @@
     <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
-      <c r="C201" s="3"/>
+      <c r="C201" s="4"/>
       <c r="D201" s="4"/>
       <c r="E201" s="4"/>
       <c r="F201" s="4"/>
@@ -7808,7 +7830,7 @@
     <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
-      <c r="C202" s="24"/>
+      <c r="C202" s="3"/>
       <c r="D202" s="4"/>
       <c r="E202" s="4"/>
       <c r="F202" s="4"/>
@@ -7838,7 +7860,7 @@
     <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
-      <c r="C203" s="3"/>
+      <c r="C203" s="24"/>
       <c r="D203" s="4"/>
       <c r="E203" s="4"/>
       <c r="F203" s="4"/>
@@ -7868,40 +7890,40 @@
     <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
-      <c r="C204" s="4"/>
-      <c r="D204" s="25"/>
+      <c r="C204" s="3"/>
+      <c r="D204" s="4"/>
       <c r="E204" s="4"/>
-      <c r="F204" s="27"/>
-      <c r="G204" s="25"/>
-      <c r="H204" s="25"/>
-      <c r="I204" s="25"/>
+      <c r="F204" s="4"/>
+      <c r="G204" s="4"/>
+      <c r="H204" s="4"/>
+      <c r="I204" s="4"/>
       <c r="J204" s="4"/>
-      <c r="K204" s="25"/>
-      <c r="L204" s="25"/>
-      <c r="M204" s="25"/>
-      <c r="N204" s="25"/>
-      <c r="O204" s="25"/>
-      <c r="P204" s="25"/>
-      <c r="Q204" s="25"/>
-      <c r="R204" s="25"/>
-      <c r="S204" s="25"/>
-      <c r="T204" s="25"/>
-      <c r="U204" s="25"/>
-      <c r="V204" s="25"/>
-      <c r="W204" s="25"/>
-      <c r="X204" s="25"/>
-      <c r="Y204" s="25"/>
-      <c r="Z204" s="25"/>
-      <c r="AA204" s="25"/>
-      <c r="AB204" s="25"/>
+      <c r="K204" s="4"/>
+      <c r="L204" s="4"/>
+      <c r="M204" s="4"/>
+      <c r="N204" s="4"/>
+      <c r="O204" s="4"/>
+      <c r="P204" s="4"/>
+      <c r="Q204" s="4"/>
+      <c r="R204" s="4"/>
+      <c r="S204" s="4"/>
+      <c r="T204" s="4"/>
+      <c r="U204" s="4"/>
+      <c r="V204" s="4"/>
+      <c r="W204" s="4"/>
+      <c r="X204" s="4"/>
+      <c r="Y204" s="4"/>
+      <c r="Z204" s="4"/>
+      <c r="AA204" s="4"/>
+      <c r="AB204" s="4"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
-      <c r="C205" s="3"/>
+      <c r="C205" s="4"/>
       <c r="D205" s="25"/>
-      <c r="E205" s="25"/>
-      <c r="F205" s="25"/>
+      <c r="E205" s="4"/>
+      <c r="F205" s="27"/>
       <c r="G205" s="25"/>
       <c r="H205" s="25"/>
       <c r="I205" s="25"/>
@@ -7928,14 +7950,14 @@
     <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
-      <c r="C206" s="4"/>
+      <c r="C206" s="3"/>
       <c r="D206" s="25"/>
-      <c r="E206" s="4"/>
-      <c r="F206" s="4"/>
+      <c r="E206" s="25"/>
+      <c r="F206" s="25"/>
       <c r="G206" s="25"/>
       <c r="H206" s="25"/>
       <c r="I206" s="25"/>
-      <c r="J206" s="25"/>
+      <c r="J206" s="4"/>
       <c r="K206" s="25"/>
       <c r="L206" s="25"/>
       <c r="M206" s="25"/>
@@ -7961,7 +7983,7 @@
       <c r="C207" s="4"/>
       <c r="D207" s="25"/>
       <c r="E207" s="4"/>
-      <c r="F207" s="25"/>
+      <c r="F207" s="4"/>
       <c r="G207" s="25"/>
       <c r="H207" s="25"/>
       <c r="I207" s="25"/>
@@ -7986,34 +8008,34 @@
       <c r="AB207" s="25"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="14"/>
-      <c r="B208" s="14"/>
-      <c r="C208" s="14"/>
-      <c r="D208" s="14"/>
-      <c r="E208" s="14"/>
-      <c r="F208" s="14"/>
-      <c r="G208" s="14"/>
-      <c r="H208" s="14"/>
-      <c r="I208" s="14"/>
-      <c r="J208" s="14"/>
-      <c r="K208" s="14"/>
-      <c r="L208" s="14"/>
-      <c r="M208" s="14"/>
-      <c r="N208" s="14"/>
-      <c r="O208" s="14"/>
-      <c r="P208" s="14"/>
-      <c r="Q208" s="14"/>
-      <c r="R208" s="14"/>
-      <c r="S208" s="14"/>
-      <c r="T208" s="14"/>
-      <c r="U208" s="14"/>
-      <c r="V208" s="14"/>
-      <c r="W208" s="14"/>
-      <c r="X208" s="14"/>
-      <c r="Y208" s="14"/>
-      <c r="Z208" s="14"/>
-      <c r="AA208" s="14"/>
-      <c r="AB208" s="14"/>
+      <c r="A208" s="4"/>
+      <c r="B208" s="4"/>
+      <c r="C208" s="4"/>
+      <c r="D208" s="25"/>
+      <c r="E208" s="4"/>
+      <c r="F208" s="25"/>
+      <c r="G208" s="25"/>
+      <c r="H208" s="25"/>
+      <c r="I208" s="25"/>
+      <c r="J208" s="25"/>
+      <c r="K208" s="25"/>
+      <c r="L208" s="25"/>
+      <c r="M208" s="25"/>
+      <c r="N208" s="25"/>
+      <c r="O208" s="25"/>
+      <c r="P208" s="25"/>
+      <c r="Q208" s="25"/>
+      <c r="R208" s="25"/>
+      <c r="S208" s="25"/>
+      <c r="T208" s="25"/>
+      <c r="U208" s="25"/>
+      <c r="V208" s="25"/>
+      <c r="W208" s="25"/>
+      <c r="X208" s="25"/>
+      <c r="Y208" s="25"/>
+      <c r="Z208" s="25"/>
+      <c r="AA208" s="25"/>
+      <c r="AB208" s="25"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
       <c r="A209" s="14"/>
@@ -8046,34 +8068,34 @@
       <c r="AB209" s="14"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="26"/>
-      <c r="B210" s="26"/>
-      <c r="C210" s="26"/>
-      <c r="D210" s="26"/>
-      <c r="E210" s="26"/>
-      <c r="F210" s="26"/>
-      <c r="G210" s="26"/>
-      <c r="H210" s="26"/>
-      <c r="I210" s="26"/>
-      <c r="J210" s="26"/>
-      <c r="K210" s="26"/>
-      <c r="L210" s="26"/>
-      <c r="M210" s="26"/>
-      <c r="N210" s="26"/>
-      <c r="O210" s="26"/>
-      <c r="P210" s="26"/>
-      <c r="Q210" s="26"/>
-      <c r="R210" s="26"/>
-      <c r="S210" s="26"/>
-      <c r="T210" s="26"/>
-      <c r="U210" s="26"/>
-      <c r="V210" s="26"/>
-      <c r="W210" s="26"/>
-      <c r="X210" s="26"/>
-      <c r="Y210" s="26"/>
-      <c r="Z210" s="26"/>
-      <c r="AA210" s="26"/>
-      <c r="AB210" s="26"/>
+      <c r="A210" s="14"/>
+      <c r="B210" s="14"/>
+      <c r="C210" s="14"/>
+      <c r="D210" s="14"/>
+      <c r="E210" s="14"/>
+      <c r="F210" s="14"/>
+      <c r="G210" s="14"/>
+      <c r="H210" s="14"/>
+      <c r="I210" s="14"/>
+      <c r="J210" s="14"/>
+      <c r="K210" s="14"/>
+      <c r="L210" s="14"/>
+      <c r="M210" s="14"/>
+      <c r="N210" s="14"/>
+      <c r="O210" s="14"/>
+      <c r="P210" s="14"/>
+      <c r="Q210" s="14"/>
+      <c r="R210" s="14"/>
+      <c r="S210" s="14"/>
+      <c r="T210" s="14"/>
+      <c r="U210" s="14"/>
+      <c r="V210" s="14"/>
+      <c r="W210" s="14"/>
+      <c r="X210" s="14"/>
+      <c r="Y210" s="14"/>
+      <c r="Z210" s="14"/>
+      <c r="AA210" s="14"/>
+      <c r="AB210" s="14"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="26"/>
@@ -10266,7 +10288,34 @@
       <c r="AB283" s="26"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
-      <c r="D284" s="28"/>
+      <c r="A284" s="26"/>
+      <c r="B284" s="26"/>
+      <c r="C284" s="26"/>
+      <c r="D284" s="26"/>
+      <c r="E284" s="26"/>
+      <c r="F284" s="26"/>
+      <c r="G284" s="26"/>
+      <c r="H284" s="26"/>
+      <c r="I284" s="26"/>
+      <c r="J284" s="26"/>
+      <c r="K284" s="26"/>
+      <c r="L284" s="26"/>
+      <c r="M284" s="26"/>
+      <c r="N284" s="26"/>
+      <c r="O284" s="26"/>
+      <c r="P284" s="26"/>
+      <c r="Q284" s="26"/>
+      <c r="R284" s="26"/>
+      <c r="S284" s="26"/>
+      <c r="T284" s="26"/>
+      <c r="U284" s="26"/>
+      <c r="V284" s="26"/>
+      <c r="W284" s="26"/>
+      <c r="X284" s="26"/>
+      <c r="Y284" s="26"/>
+      <c r="Z284" s="26"/>
+      <c r="AA284" s="26"/>
+      <c r="AB284" s="26"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
       <c r="D285" s="28"/>
@@ -12491,64 +12540,67 @@
     <row r="1025" ht="15.75" customHeight="1">
       <c r="D1025" s="28"/>
     </row>
-    <row r="1026" ht="15.75" customHeight="1"/>
+    <row r="1026" ht="15.75" customHeight="1">
+      <c r="D1026" s="28"/>
+    </row>
     <row r="1027" ht="15.75" customHeight="1"/>
     <row r="1028" ht="15.75" customHeight="1"/>
     <row r="1029" ht="15.75" customHeight="1"/>
+    <row r="1030" ht="15.75" customHeight="1"/>
   </sheetData>
-  <conditionalFormatting sqref="A1:B1029 C1:C70 D1:AB1029 C80:C1029">
+  <conditionalFormatting sqref="A1:B1030 C1:C70 D1:AB1030 C81:C1030">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B1029 C1:C70 D1:AB1029 C80:C1029">
+  <conditionalFormatting sqref="A1:B1030 C1:C70 D1:AB1030 C81:C1030">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>AND($A1="begin group", NOT($B1 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B1029 C1:C70 D1:AB1029 C80:C1029">
+  <conditionalFormatting sqref="A1:B1030 C1:C70 D1:AB1030 C81:C1030">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>AND($A1="end group", $B1 = "", $C1 = "", $D1 = "", $E1 = "", $F1 = "", $G1 = "", $H1 = "", $J1 = "", $K1 = "", $L1 = "", $N1 = "", $O1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B1029 C1:C70 D1:AB1029 C80:C1029">
+  <conditionalFormatting sqref="A1:B1030 C1:C70 D1:AB1030 C81:C1030">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
     <cfRule type="expression" dxfId="4" priority="5">
-      <formula>AND(A1 = "type", COUNTIF($A$1:$A$1047, "begin group") = COUNTIF($A$1:$A$1047, "end group"))</formula>
+      <formula>AND(A1 = "type", COUNTIF($A$1:$A$1048, "begin group") = COUNTIF($A$1:$A$1048, "end group"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
     <cfRule type="expression" dxfId="5" priority="6">
-      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$1038, "begin group") = COUNTIF($A$1:$A$1047, "end group")))</formula>
+      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$1039, "begin group") = COUNTIF($A$1:$A$1048, "end group")))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1029">
+  <conditionalFormatting sqref="J1:J1030">
     <cfRule type="expression" dxfId="6" priority="7">
       <formula>AND($J1 = "", $A1 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C70 C80:C1029">
+  <conditionalFormatting sqref="C1:C59 C61:C70 C81:C1030">
     <cfRule type="expression" dxfId="7" priority="8">
       <formula>AND(AND(NOT($A1 = "end group"), NOT($A1 = "end repeat"), NOT($A1 = "")), $C1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B1029">
+  <conditionalFormatting sqref="B1:B1030">
     <cfRule type="expression" dxfId="8" priority="9">
       <formula>AND(AND(NOT($A1 = "end group"), NOT($A1 = "end repeat"), NOT($A1 = "")), $B1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A1029">
+  <conditionalFormatting sqref="A1:A1030">
     <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B1029">
+  <conditionalFormatting sqref="B2:B1030">
     <cfRule type="expression" dxfId="10" priority="11">
-      <formula>COUNTIF($B$2:$B$1046,B2)&gt;1</formula>
+      <formula>COUNTIF($B$2:$B$1047,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
@@ -12611,23 +12663,23 @@
       <formula>"media::image"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:I1029">
+  <conditionalFormatting sqref="H1:I1030">
     <cfRule type="expression" dxfId="7" priority="24">
       <formula>AND(NOT($G1 = ""), $H1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B1029 C1:C70 D1:AB1029 C80:C1029">
+  <conditionalFormatting sqref="A1:B1030 C1:C70 D1:AB1030 C81:C1030">
     <cfRule type="expression" dxfId="11" priority="25">
       <formula>AND($A1="begin repeat", NOT($B1 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B1029 C1:C70 D1:AB1029 C80:C1029">
+  <conditionalFormatting sqref="A1:B1030 C1:C70 D1:AB1030 C81:C1030">
     <cfRule type="expression" dxfId="12" priority="26">
       <formula>AND($A1="end repeat", $B1 = "", $C1 = "", $D1 = "", $E1 = "", $F1 = "", $G1 = "", $H1 = "", $J1 = "", $K1 = "", $L1 = "", $N1 = "", $O1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="D2:D1025">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D1026">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12656,7 +12708,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="29" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B1" s="29" t="s">
         <v>1</v>
@@ -12671,12 +12723,12 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="31" t="s">
-        <v>169</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="C2" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>135</v>
       </c>
       <c r="D2" s="31"/>
@@ -12686,12 +12738,12 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="31" t="s">
-        <v>169</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="C3" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" s="22" t="s">
         <v>139</v>
       </c>
       <c r="D3" s="31"/>
@@ -12701,12 +12753,12 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="31" t="s">
-        <v>169</v>
-      </c>
-      <c r="B4" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="B4" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="C4" s="22" t="s">
         <v>142</v>
       </c>
       <c r="D4" s="31"/>
@@ -12716,12 +12768,12 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="31" t="s">
-        <v>169</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="C5" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" s="22" t="s">
         <v>145</v>
       </c>
       <c r="D5" s="31"/>
@@ -12731,12 +12783,12 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="16" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="C6" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="C6" s="22" t="s">
         <v>148</v>
       </c>
       <c r="D6" s="31"/>
@@ -12746,12 +12798,12 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="16" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="C7" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7" s="22" t="s">
         <v>151</v>
       </c>
       <c r="D7" s="31"/>
@@ -12761,12 +12813,12 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="C8" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="C8" s="22" t="s">
         <v>154</v>
       </c>
       <c r="D8" s="31"/>
@@ -12776,12 +12828,12 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="16" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="C9" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="C9" s="22" t="s">
         <v>157</v>
       </c>
       <c r="D9" s="31"/>
@@ -12790,9 +12842,15 @@
       <c r="G9" s="31"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
+      <c r="A10" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>160</v>
+      </c>
       <c r="D10" s="31"/>
       <c r="E10" s="31"/>
       <c r="F10" s="31"/>
@@ -15484,46 +15542,46 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="29" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="32" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C2" s="33">
         <f>NOW()</f>
-        <v>45159.50918</v>
+        <v>45197.48974</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1"/>
